--- a/NRI_STLF_Data/WeatherData/T_sari/T_sari94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sari/T_sari94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_sari\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="6">
   <si>
     <t>Fog</t>
   </si>
@@ -39,12 +44,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -132,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="I375" sqref="I375"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AD388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -544,7 +549,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -624,7 +629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -701,7 +706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -778,7 +783,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -858,7 +863,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -935,7 +940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2235,7 +2240,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2620,7 +2625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2928,7 +2933,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3005,7 +3010,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3517,7 +3522,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3825,7 +3830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3902,7 +3907,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4444,7 +4449,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -4983,7 +4988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5063,7 +5068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5217,7 +5222,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5297,7 +5302,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5451,7 +5456,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5528,7 +5533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5605,7 +5610,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5756,7 +5761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5833,7 +5838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6144,7 +6149,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6375,7 +6380,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6535,7 +6540,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6689,7 +6694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6769,7 +6774,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6846,7 +6851,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6923,7 +6928,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7000,7 +7005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7077,7 +7082,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7231,7 +7236,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7592,7 +7597,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7900,7 +7905,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8119,7 +8124,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8273,7 +8278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8353,7 +8358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8430,7 +8435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8584,7 +8589,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8661,7 +8666,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8892,7 +8897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8969,7 +8974,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9046,7 +9051,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9123,7 +9128,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9200,7 +9205,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9354,7 +9359,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9431,7 +9436,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9508,7 +9513,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9588,7 +9593,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9668,7 +9673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9748,7 +9753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9902,7 +9907,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10133,7 +10138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10275,7 +10280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10352,7 +10357,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10429,7 +10434,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10571,7 +10576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10636,7 +10641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10713,7 +10718,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10855,7 +10860,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10932,7 +10937,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11163,7 +11168,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11323,7 +11328,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11400,7 +11405,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11477,7 +11482,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11554,7 +11559,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11631,7 +11636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11708,7 +11713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11785,7 +11790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11862,7 +11867,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11939,7 +11944,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12016,7 +12021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12093,7 +12098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12170,7 +12175,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12250,7 +12255,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12327,7 +12332,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12404,7 +12409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12484,7 +12489,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12561,7 +12566,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12641,7 +12646,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12718,7 +12723,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12795,7 +12800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12952,7 +12957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13032,7 +13037,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13177,7 +13182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13319,7 +13324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13396,7 +13401,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13473,7 +13478,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13550,7 +13555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13627,7 +13632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13704,7 +13709,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13781,7 +13786,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13858,7 +13863,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13935,7 +13940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14012,7 +14017,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14092,7 +14097,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14172,7 +14177,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14252,7 +14257,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14332,7 +14337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14412,7 +14417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14489,7 +14494,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14554,7 +14559,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14619,7 +14624,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14696,7 +14701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14773,7 +14778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14850,7 +14855,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14927,7 +14932,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15004,7 +15009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15081,7 +15086,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15158,7 +15163,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15235,7 +15240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15312,7 +15317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15389,7 +15394,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15466,7 +15471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15543,7 +15548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15620,7 +15625,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15697,7 +15702,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15774,7 +15779,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15854,7 +15859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15934,7 +15939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16014,7 +16019,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16094,7 +16099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16171,7 +16176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16248,7 +16253,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16328,7 +16333,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16405,7 +16410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16482,7 +16487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16562,7 +16567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16639,7 +16644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16716,7 +16721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16793,7 +16798,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16870,7 +16875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16947,7 +16952,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17024,7 +17029,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17098,7 +17103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17163,7 +17168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17240,7 +17245,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17317,7 +17322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17397,7 +17402,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17477,7 +17482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17557,7 +17562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17637,7 +17642,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17717,7 +17722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17794,7 +17799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17871,7 +17876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17948,7 +17953,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18013,7 +18018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18090,7 +18095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18167,7 +18172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18244,7 +18249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18321,7 +18326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18398,7 +18403,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18478,7 +18483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18558,7 +18563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18638,7 +18643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18718,7 +18723,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18795,7 +18800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18872,7 +18877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18952,7 +18957,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19032,7 +19037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19109,7 +19114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19189,7 +19194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19266,7 +19271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19331,7 +19336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19405,7 +19410,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19482,7 +19487,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19562,7 +19567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19639,7 +19644,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19716,7 +19721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19793,7 +19798,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19870,7 +19875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19947,7 +19952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20024,7 +20029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20104,7 +20109,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20184,7 +20189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20264,7 +20269,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20344,7 +20349,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20424,7 +20429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20504,7 +20509,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20581,7 +20586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20661,7 +20666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20738,7 +20743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20803,7 +20808,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20868,7 +20873,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20933,7 +20938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21010,7 +21015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21090,7 +21095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21170,7 +21175,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21250,7 +21255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21330,7 +21335,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21407,7 +21412,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21484,7 +21489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21564,7 +21569,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21641,7 +21646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21718,7 +21723,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21795,7 +21800,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21872,7 +21877,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21949,7 +21954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22026,7 +22031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22100,7 +22105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22177,7 +22182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22254,7 +22259,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22331,7 +22336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22408,7 +22413,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22488,7 +22493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22568,7 +22573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22645,7 +22650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22722,7 +22727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22799,7 +22804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22879,7 +22884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22956,7 +22961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23036,7 +23041,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23116,7 +23121,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23181,7 +23186,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23258,7 +23263,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23335,7 +23340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23412,7 +23417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23492,7 +23497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23572,7 +23577,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23649,7 +23654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23729,7 +23734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23803,7 +23808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23880,7 +23885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23957,7 +23962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24037,7 +24042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24117,7 +24122,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24194,7 +24199,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24271,7 +24276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24351,7 +24356,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24431,7 +24436,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24511,7 +24516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24588,7 +24593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24665,7 +24670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24742,7 +24747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24819,7 +24824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24896,7 +24901,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24976,7 +24981,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25053,7 +25058,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25118,7 +25123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25183,7 +25188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25260,7 +25265,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25340,7 +25345,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25420,7 +25425,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25497,7 +25502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25574,7 +25579,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25639,7 +25644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25704,7 +25709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25781,7 +25786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25858,7 +25863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25938,7 +25943,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26018,7 +26023,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26095,7 +26100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26172,7 +26177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26252,7 +26257,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26329,7 +26334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26406,7 +26411,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26483,7 +26488,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26560,7 +26565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26637,7 +26642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26714,7 +26719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26791,7 +26796,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26868,7 +26873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26948,7 +26953,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27028,7 +27033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27108,7 +27113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27188,7 +27193,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27265,7 +27270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27342,7 +27347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27422,7 +27427,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27499,7 +27504,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27579,7 +27584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27659,7 +27664,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27736,7 +27741,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27813,7 +27818,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27893,7 +27898,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27973,7 +27978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28053,7 +28058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28133,7 +28138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28213,7 +28218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28293,7 +28298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28370,7 +28375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28433,1462 +28438,6 @@
       </c>
       <c r="AA365">
         <v>112</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>24</v>
-      </c>
-      <c r="G366">
-        <v>14</v>
-      </c>
-      <c r="H366">
-        <v>6</v>
-      </c>
-      <c r="I366">
-        <v>10</v>
-      </c>
-      <c r="J366">
-        <v>4</v>
-      </c>
-      <c r="K366">
-        <v>-3</v>
-      </c>
-      <c r="L366">
-        <v>87</v>
-      </c>
-      <c r="M366">
-        <v>52</v>
-      </c>
-      <c r="N366">
-        <v>18</v>
-      </c>
-      <c r="O366">
-        <v>1010</v>
-      </c>
-      <c r="P366">
-        <v>1008</v>
-      </c>
-      <c r="Q366">
-        <v>1006</v>
-      </c>
-      <c r="R366">
-        <v>10</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>29</v>
-      </c>
-      <c r="V366">
-        <v>13</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>6</v>
-      </c>
-      <c r="AA366">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>11</v>
-      </c>
-      <c r="G367">
-        <v>10</v>
-      </c>
-      <c r="H367">
-        <v>9</v>
-      </c>
-      <c r="I367">
-        <v>10</v>
-      </c>
-      <c r="J367">
-        <v>8</v>
-      </c>
-      <c r="K367">
-        <v>6</v>
-      </c>
-      <c r="L367">
-        <v>100</v>
-      </c>
-      <c r="M367">
-        <v>87</v>
-      </c>
-      <c r="N367">
-        <v>71</v>
-      </c>
-      <c r="O367">
-        <v>1023</v>
-      </c>
-      <c r="P367">
-        <v>1020</v>
-      </c>
-      <c r="Q367">
-        <v>1011</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>8</v>
-      </c>
-      <c r="T367">
-        <v>3</v>
-      </c>
-      <c r="U367">
-        <v>26</v>
-      </c>
-      <c r="V367">
-        <v>13</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>7</v>
-      </c>
-      <c r="AA367">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>11</v>
-      </c>
-      <c r="G368">
-        <v>10</v>
-      </c>
-      <c r="H368">
-        <v>9</v>
-      </c>
-      <c r="I368">
-        <v>11</v>
-      </c>
-      <c r="J368">
-        <v>9</v>
-      </c>
-      <c r="K368">
-        <v>7</v>
-      </c>
-      <c r="L368">
-        <v>100</v>
-      </c>
-      <c r="M368">
-        <v>95</v>
-      </c>
-      <c r="N368">
-        <v>87</v>
-      </c>
-      <c r="O368">
-        <v>1018</v>
-      </c>
-      <c r="P368">
-        <v>1017</v>
-      </c>
-      <c r="Q368">
-        <v>1015</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>8</v>
-      </c>
-      <c r="T368">
-        <v>2</v>
-      </c>
-      <c r="U368">
-        <v>19</v>
-      </c>
-      <c r="V368">
-        <v>8</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>8</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA368">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>16</v>
-      </c>
-      <c r="G369">
-        <v>11</v>
-      </c>
-      <c r="H369">
-        <v>7</v>
-      </c>
-      <c r="I369">
-        <v>11</v>
-      </c>
-      <c r="J369">
-        <v>8</v>
-      </c>
-      <c r="K369">
-        <v>7</v>
-      </c>
-      <c r="L369">
-        <v>100</v>
-      </c>
-      <c r="M369">
-        <v>85</v>
-      </c>
-      <c r="N369">
-        <v>55</v>
-      </c>
-      <c r="O369">
-        <v>1017</v>
-      </c>
-      <c r="P369">
-        <v>1015</v>
-      </c>
-      <c r="Q369">
-        <v>1013</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>9</v>
-      </c>
-      <c r="T369">
-        <v>3</v>
-      </c>
-      <c r="U369">
-        <v>23</v>
-      </c>
-      <c r="V369">
-        <v>10</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>5</v>
-      </c>
-      <c r="Z369" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA369">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>22</v>
-      </c>
-      <c r="G370">
-        <v>14</v>
-      </c>
-      <c r="H370">
-        <v>8</v>
-      </c>
-      <c r="I370">
-        <v>11</v>
-      </c>
-      <c r="J370">
-        <v>7</v>
-      </c>
-      <c r="K370">
-        <v>4</v>
-      </c>
-      <c r="L370">
-        <v>94</v>
-      </c>
-      <c r="M370">
-        <v>64</v>
-      </c>
-      <c r="N370">
-        <v>33</v>
-      </c>
-      <c r="O370">
-        <v>1018</v>
-      </c>
-      <c r="P370">
-        <v>1015</v>
-      </c>
-      <c r="Q370">
-        <v>1014</v>
-      </c>
-      <c r="R370">
-        <v>10</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>23</v>
-      </c>
-      <c r="V370">
-        <v>8</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>5</v>
-      </c>
-      <c r="AA370">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>26</v>
-      </c>
-      <c r="G371">
-        <v>18</v>
-      </c>
-      <c r="H371">
-        <v>10</v>
-      </c>
-      <c r="I371">
-        <v>15</v>
-      </c>
-      <c r="J371">
-        <v>9</v>
-      </c>
-      <c r="K371">
-        <v>2</v>
-      </c>
-      <c r="L371">
-        <v>94</v>
-      </c>
-      <c r="M371">
-        <v>61</v>
-      </c>
-      <c r="N371">
-        <v>28</v>
-      </c>
-      <c r="O371">
-        <v>1013</v>
-      </c>
-      <c r="P371">
-        <v>1011</v>
-      </c>
-      <c r="Q371">
-        <v>1009</v>
-      </c>
-      <c r="R371">
-        <v>10</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>14</v>
-      </c>
-      <c r="V371">
-        <v>6</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>5</v>
-      </c>
-      <c r="AA371">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>26</v>
-      </c>
-      <c r="G372">
-        <v>21</v>
-      </c>
-      <c r="H372">
-        <v>16</v>
-      </c>
-      <c r="I372">
-        <v>17</v>
-      </c>
-      <c r="J372">
-        <v>12</v>
-      </c>
-      <c r="K372">
-        <v>8</v>
-      </c>
-      <c r="L372">
-        <v>94</v>
-      </c>
-      <c r="M372">
-        <v>64</v>
-      </c>
-      <c r="N372">
-        <v>39</v>
-      </c>
-      <c r="O372">
-        <v>1011</v>
-      </c>
-      <c r="P372">
-        <v>1010</v>
-      </c>
-      <c r="Q372">
-        <v>1008</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>8</v>
-      </c>
-      <c r="U372">
-        <v>19</v>
-      </c>
-      <c r="V372">
-        <v>8</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>8</v>
-      </c>
-      <c r="AA372">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>23</v>
-      </c>
-      <c r="G373">
-        <v>18</v>
-      </c>
-      <c r="H373">
-        <v>13</v>
-      </c>
-      <c r="I373">
-        <v>14</v>
-      </c>
-      <c r="J373">
-        <v>12</v>
-      </c>
-      <c r="K373">
-        <v>10</v>
-      </c>
-      <c r="L373">
-        <v>94</v>
-      </c>
-      <c r="M373">
-        <v>74</v>
-      </c>
-      <c r="N373">
-        <v>44</v>
-      </c>
-      <c r="O373">
-        <v>1009</v>
-      </c>
-      <c r="P373">
-        <v>1007</v>
-      </c>
-      <c r="Q373">
-        <v>1006</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>10</v>
-      </c>
-      <c r="T373">
-        <v>6</v>
-      </c>
-      <c r="U373">
-        <v>23</v>
-      </c>
-      <c r="V373">
-        <v>6</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>7</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA373">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>16</v>
-      </c>
-      <c r="G374">
-        <v>13</v>
-      </c>
-      <c r="H374">
-        <v>12</v>
-      </c>
-      <c r="I374">
-        <v>13</v>
-      </c>
-      <c r="J374">
-        <v>12</v>
-      </c>
-      <c r="K374">
-        <v>11</v>
-      </c>
-      <c r="L374">
-        <v>100</v>
-      </c>
-      <c r="M374">
-        <v>91</v>
-      </c>
-      <c r="N374">
-        <v>77</v>
-      </c>
-      <c r="O374">
-        <v>1013</v>
-      </c>
-      <c r="P374">
-        <v>1010</v>
-      </c>
-      <c r="Q374">
-        <v>1007</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>8</v>
-      </c>
-      <c r="T374">
-        <v>4</v>
-      </c>
-      <c r="U374">
-        <v>19</v>
-      </c>
-      <c r="V374">
-        <v>11</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>8</v>
-      </c>
-      <c r="AA374">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>22</v>
-      </c>
-      <c r="G375">
-        <v>17</v>
-      </c>
-      <c r="H375">
-        <v>12</v>
-      </c>
-      <c r="I375">
-        <v>18</v>
-      </c>
-      <c r="J375">
-        <v>13</v>
-      </c>
-      <c r="K375">
-        <v>11</v>
-      </c>
-      <c r="L375">
-        <v>100</v>
-      </c>
-      <c r="M375">
-        <v>88</v>
-      </c>
-      <c r="N375">
-        <v>60</v>
-      </c>
-      <c r="O375">
-        <v>1013</v>
-      </c>
-      <c r="P375">
-        <v>1008</v>
-      </c>
-      <c r="Q375">
-        <v>1005</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>7</v>
-      </c>
-      <c r="T375">
-        <v>2</v>
-      </c>
-      <c r="U375">
-        <v>26</v>
-      </c>
-      <c r="V375">
-        <v>10</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>6</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA375">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>14</v>
-      </c>
-      <c r="G376">
-        <v>12</v>
-      </c>
-      <c r="H376">
-        <v>10</v>
-      </c>
-      <c r="I376">
-        <v>12</v>
-      </c>
-      <c r="J376">
-        <v>11</v>
-      </c>
-      <c r="K376">
-        <v>10</v>
-      </c>
-      <c r="L376">
-        <v>100</v>
-      </c>
-      <c r="M376">
-        <v>92</v>
-      </c>
-      <c r="N376">
-        <v>77</v>
-      </c>
-      <c r="O376">
-        <v>1020</v>
-      </c>
-      <c r="P376">
-        <v>1016</v>
-      </c>
-      <c r="Q376">
-        <v>1013</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>9</v>
-      </c>
-      <c r="T376">
-        <v>1</v>
-      </c>
-      <c r="U376">
-        <v>14</v>
-      </c>
-      <c r="V376">
-        <v>6</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>6</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA376">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>15</v>
-      </c>
-      <c r="G377">
-        <v>12</v>
-      </c>
-      <c r="H377">
-        <v>9</v>
-      </c>
-      <c r="I377">
-        <v>11</v>
-      </c>
-      <c r="J377">
-        <v>9</v>
-      </c>
-      <c r="K377">
-        <v>7</v>
-      </c>
-      <c r="L377">
-        <v>100</v>
-      </c>
-      <c r="M377">
-        <v>85</v>
-      </c>
-      <c r="N377">
-        <v>72</v>
-      </c>
-      <c r="O377">
-        <v>1022</v>
-      </c>
-      <c r="P377">
-        <v>1021</v>
-      </c>
-      <c r="Q377">
-        <v>1019</v>
-      </c>
-      <c r="R377">
-        <v>10</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>23</v>
-      </c>
-      <c r="V377">
-        <v>10</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>6</v>
-      </c>
-      <c r="AA377">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>11</v>
-      </c>
-      <c r="G378">
-        <v>9</v>
-      </c>
-      <c r="H378">
-        <v>8</v>
-      </c>
-      <c r="I378">
-        <v>11</v>
-      </c>
-      <c r="J378">
-        <v>9</v>
-      </c>
-      <c r="K378">
-        <v>8</v>
-      </c>
-      <c r="L378">
-        <v>100</v>
-      </c>
-      <c r="M378">
-        <v>97</v>
-      </c>
-      <c r="N378">
-        <v>93</v>
-      </c>
-      <c r="O378">
-        <v>1026</v>
-      </c>
-      <c r="P378">
-        <v>1024</v>
-      </c>
-      <c r="Q378">
-        <v>1021</v>
-      </c>
-      <c r="R378">
-        <v>8</v>
-      </c>
-      <c r="S378">
-        <v>4</v>
-      </c>
-      <c r="T378">
-        <v>2</v>
-      </c>
-      <c r="U378">
-        <v>26</v>
-      </c>
-      <c r="V378">
-        <v>14</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>8</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA378">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>17</v>
-      </c>
-      <c r="G379">
-        <v>11</v>
-      </c>
-      <c r="H379">
-        <v>5</v>
-      </c>
-      <c r="I379">
-        <v>12</v>
-      </c>
-      <c r="J379">
-        <v>8</v>
-      </c>
-      <c r="K379">
-        <v>4</v>
-      </c>
-      <c r="L379">
-        <v>100</v>
-      </c>
-      <c r="M379">
-        <v>79</v>
-      </c>
-      <c r="N379">
-        <v>55</v>
-      </c>
-      <c r="O379">
-        <v>1025</v>
-      </c>
-      <c r="P379">
-        <v>1020</v>
-      </c>
-      <c r="Q379">
-        <v>1015</v>
-      </c>
-      <c r="R379">
-        <v>10</v>
-      </c>
-      <c r="S379">
-        <v>10</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>26</v>
-      </c>
-      <c r="V379">
-        <v>10</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>2</v>
-      </c>
-      <c r="AA379">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>25</v>
-      </c>
-      <c r="G380">
-        <v>16</v>
-      </c>
-      <c r="H380">
-        <v>7</v>
-      </c>
-      <c r="I380">
-        <v>12</v>
-      </c>
-      <c r="J380">
-        <v>9</v>
-      </c>
-      <c r="K380">
-        <v>4</v>
-      </c>
-      <c r="L380">
-        <v>100</v>
-      </c>
-      <c r="M380">
-        <v>77</v>
-      </c>
-      <c r="N380">
-        <v>26</v>
-      </c>
-      <c r="O380">
-        <v>1020</v>
-      </c>
-      <c r="P380">
-        <v>1015</v>
-      </c>
-      <c r="Q380">
-        <v>1012</v>
-      </c>
-      <c r="R380">
-        <v>10</v>
-      </c>
-      <c r="S380">
-        <v>9</v>
-      </c>
-      <c r="T380">
-        <v>2</v>
-      </c>
-      <c r="U380">
-        <v>34</v>
-      </c>
-      <c r="V380">
-        <v>8</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>7</v>
-      </c>
-      <c r="Z380" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA380">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>11</v>
-      </c>
-      <c r="G381">
-        <v>9</v>
-      </c>
-      <c r="H381">
-        <v>8</v>
-      </c>
-      <c r="I381">
-        <v>10</v>
-      </c>
-      <c r="J381">
-        <v>9</v>
-      </c>
-      <c r="K381">
-        <v>7</v>
-      </c>
-      <c r="L381">
-        <v>100</v>
-      </c>
-      <c r="M381">
-        <v>95</v>
-      </c>
-      <c r="N381">
-        <v>88</v>
-      </c>
-      <c r="O381">
-        <v>1023</v>
-      </c>
-      <c r="P381">
-        <v>1022</v>
-      </c>
-      <c r="Q381">
-        <v>1021</v>
-      </c>
-      <c r="R381">
-        <v>10</v>
-      </c>
-      <c r="S381">
-        <v>5</v>
-      </c>
-      <c r="T381">
-        <v>2</v>
-      </c>
-      <c r="U381">
-        <v>19</v>
-      </c>
-      <c r="V381">
-        <v>11</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>7</v>
-      </c>
-      <c r="Z381" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA381">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>15</v>
-      </c>
-      <c r="G382">
-        <v>10</v>
-      </c>
-      <c r="H382">
-        <v>5</v>
-      </c>
-      <c r="I382">
-        <v>10</v>
-      </c>
-      <c r="J382">
-        <v>7</v>
-      </c>
-      <c r="K382">
-        <v>4</v>
-      </c>
-      <c r="L382">
-        <v>94</v>
-      </c>
-      <c r="M382">
-        <v>83</v>
-      </c>
-      <c r="N382">
-        <v>63</v>
-      </c>
-      <c r="O382">
-        <v>1020</v>
-      </c>
-      <c r="P382">
-        <v>1017</v>
-      </c>
-      <c r="Q382">
-        <v>1015</v>
-      </c>
-      <c r="R382">
-        <v>10</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>23</v>
-      </c>
-      <c r="V382">
-        <v>8</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>3</v>
-      </c>
-      <c r="AA382">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>15</v>
-      </c>
-      <c r="G383">
-        <v>12</v>
-      </c>
-      <c r="H383">
-        <v>9</v>
-      </c>
-      <c r="I383">
-        <v>11</v>
-      </c>
-      <c r="J383">
-        <v>11</v>
-      </c>
-      <c r="K383">
-        <v>8</v>
-      </c>
-      <c r="L383">
-        <v>100</v>
-      </c>
-      <c r="M383">
-        <v>90</v>
-      </c>
-      <c r="N383">
-        <v>72</v>
-      </c>
-      <c r="O383">
-        <v>1018</v>
-      </c>
-      <c r="P383">
-        <v>1017</v>
-      </c>
-      <c r="Q383">
-        <v>1017</v>
-      </c>
-      <c r="R383">
-        <v>10</v>
-      </c>
-      <c r="S383">
-        <v>5</v>
-      </c>
-      <c r="T383">
-        <v>2</v>
-      </c>
-      <c r="U383">
-        <v>14</v>
-      </c>
-      <c r="V383">
-        <v>10</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>7</v>
-      </c>
-      <c r="Z383" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>18</v>
-      </c>
-      <c r="G384">
-        <v>14</v>
-      </c>
-      <c r="H384">
-        <v>10</v>
-      </c>
-      <c r="I384">
-        <v>12</v>
-      </c>
-      <c r="J384">
-        <v>9</v>
-      </c>
-      <c r="K384">
-        <v>7</v>
-      </c>
-      <c r="L384">
-        <v>100</v>
-      </c>
-      <c r="M384">
-        <v>78</v>
-      </c>
-      <c r="N384">
-        <v>55</v>
-      </c>
-      <c r="O384">
-        <v>1019</v>
-      </c>
-      <c r="P384">
-        <v>1017</v>
-      </c>
-      <c r="Q384">
-        <v>1016</v>
-      </c>
-      <c r="R384">
-        <v>10</v>
-      </c>
-      <c r="S384">
-        <v>8</v>
-      </c>
-      <c r="T384">
-        <v>1</v>
-      </c>
-      <c r="U384">
-        <v>14</v>
-      </c>
-      <c r="V384">
-        <v>6</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>5</v>
-      </c>
-      <c r="Z384" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA384">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>19</v>
-      </c>
-      <c r="G385">
-        <v>16</v>
-      </c>
-      <c r="H385">
-        <v>12</v>
-      </c>
-      <c r="I385">
-        <v>13</v>
-      </c>
-      <c r="J385">
-        <v>11</v>
-      </c>
-      <c r="K385">
-        <v>9</v>
-      </c>
-      <c r="L385">
-        <v>100</v>
-      </c>
-      <c r="M385">
-        <v>81</v>
-      </c>
-      <c r="N385">
-        <v>52</v>
-      </c>
-      <c r="O385">
-        <v>1022</v>
-      </c>
-      <c r="P385">
-        <v>1020</v>
-      </c>
-      <c r="Q385">
-        <v>1019</v>
-      </c>
-      <c r="R385">
-        <v>10</v>
-      </c>
-      <c r="S385">
-        <v>9</v>
-      </c>
-      <c r="T385">
-        <v>7</v>
-      </c>
-      <c r="U385">
-        <v>14</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>6</v>
-      </c>
-      <c r="AA385">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>21</v>
-      </c>
-      <c r="G386">
-        <v>16</v>
-      </c>
-      <c r="H386">
-        <v>10</v>
-      </c>
-      <c r="I386">
-        <v>20</v>
-      </c>
-      <c r="J386">
-        <v>11</v>
-      </c>
-      <c r="K386">
-        <v>9</v>
-      </c>
-      <c r="L386">
-        <v>100</v>
-      </c>
-      <c r="M386">
-        <v>78</v>
-      </c>
-      <c r="N386">
-        <v>56</v>
-      </c>
-      <c r="O386">
-        <v>1019</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1016</v>
-      </c>
-      <c r="R386">
-        <v>10</v>
-      </c>
-      <c r="S386">
-        <v>6</v>
-      </c>
-      <c r="T386">
-        <v>1</v>
-      </c>
-      <c r="U386">
-        <v>14</v>
-      </c>
-      <c r="V386">
-        <v>6</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>3</v>
-      </c>
-      <c r="AA386">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>21</v>
-      </c>
-      <c r="G387">
-        <v>16</v>
-      </c>
-      <c r="H387">
-        <v>10</v>
-      </c>
-      <c r="I387">
-        <v>14</v>
-      </c>
-      <c r="J387">
-        <v>12</v>
-      </c>
-      <c r="K387">
-        <v>9</v>
-      </c>
-      <c r="L387">
-        <v>94</v>
-      </c>
-      <c r="M387">
-        <v>81</v>
-      </c>
-      <c r="N387">
-        <v>56</v>
-      </c>
-      <c r="O387">
-        <v>1017</v>
-      </c>
-      <c r="P387">
-        <v>1016</v>
-      </c>
-      <c r="Q387">
-        <v>1015</v>
-      </c>
-      <c r="R387">
-        <v>10</v>
-      </c>
-      <c r="S387">
-        <v>7</v>
-      </c>
-      <c r="T387">
-        <v>4</v>
-      </c>
-      <c r="U387">
-        <v>19</v>
-      </c>
-      <c r="V387">
-        <v>8</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>6</v>
-      </c>
-      <c r="AA387">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>22</v>
-      </c>
-      <c r="G388">
-        <v>17</v>
-      </c>
-      <c r="H388">
-        <v>12</v>
-      </c>
-      <c r="I388">
-        <v>14</v>
-      </c>
-      <c r="J388">
-        <v>12</v>
-      </c>
-      <c r="K388">
-        <v>10</v>
-      </c>
-      <c r="L388">
-        <v>94</v>
-      </c>
-      <c r="M388">
-        <v>78</v>
-      </c>
-      <c r="N388">
-        <v>53</v>
-      </c>
-      <c r="O388">
-        <v>1016</v>
-      </c>
-      <c r="P388">
-        <v>1014</v>
-      </c>
-      <c r="Q388">
-        <v>1010</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>8</v>
-      </c>
-      <c r="T388">
-        <v>5</v>
-      </c>
-      <c r="U388">
-        <v>19</v>
-      </c>
-      <c r="V388">
-        <v>10</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="AA388">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -29902,7 +28451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29914,7 +28463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
